--- a/Reported_Domains.xlsx
+++ b/Reported_Domains.xlsx
@@ -2,53 +2,75 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Suspicious Website Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BF5538-619D-4386-A6E1-AEA4C8D27637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB4CCC2-A502-4861-BD36-B6E88A249EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10812" xr2:uid="{C4E4C8E1-C906-47D0-9E09-148AEA3387B4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reported Domains" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Reported Domains</t>
+  </si>
+  <si>
+    <t>Reported Domain</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://www.totalsportek.club</t>
+  </si>
+  <si>
+    <t>https://247soccer.site</t>
+  </si>
+  <si>
+    <t>https://player4u.xyz</t>
+  </si>
+  <si>
+    <t>https://soccermlbstream.top</t>
+  </si>
+  <si>
+    <t>https://sportstreamslife.xyz</t>
+  </si>
+  <si>
+    <t>https://vidapi.xyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -62,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,14 +92,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1276EB4-3943-4462-960E-388CE23AB4CE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -426,7 +469,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{0C3D56A5-B16B-4BAC-855B-D1A13D1CD9C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>